--- a/Base pronostico_ejecutado.xlsx
+++ b/Base pronostico_ejecutado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanes\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCA62C6-32E2-4A48-8AAF-9B6DE709F058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D2AC52-403F-47AA-AC45-44B0820B0412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{05E3FDF1-C7A7-4F51-9642-ADED42C1B151}"/>
   </bookViews>
@@ -397,8 +397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88CE8D8-94BF-4AF7-96C2-E4497557FDA3}">
   <dimension ref="A1:C199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C182"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="E192" sqref="E192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2457,7 +2457,7 @@
         <v>44990</v>
       </c>
       <c r="B187">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="C187" s="3">
         <v>50</v>
